--- a/VQC R work/Data Sheets/PFAS_Sample_Meta.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Sample_Meta.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC60A8FB-39E8-4D60-AEE3-AA67E49864A4}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Data Sheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2768B714-5706-DC48-9B1B-2DBE405337C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -64,13 +69,16 @@
   </si>
   <si>
     <t>PFAS_10mg</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,16 +445,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,127 +477,169 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3920</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3921</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3922</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3923</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3932</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3933</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3934</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3935</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3936</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3937</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3938</v>
       </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3939</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>

--- a/VQC R work/Data Sheets/PFAS_Sample_Meta.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Sample_Meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Data Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2768B714-5706-DC48-9B1B-2DBE405337C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D773B833-AA0D-2F4F-8C5F-2A4FFF3D28B6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="3080" windowWidth="18220" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Drug</t>
   </si>
   <si>
-    <t>BL_UV</t>
-  </si>
-  <si>
-    <t>D6_UV</t>
-  </si>
-  <si>
     <t>WT</t>
   </si>
   <si>
@@ -69,6 +63,54 @@
   </si>
   <si>
     <t>PFAS_10mg</t>
+  </si>
+  <si>
+    <t>Initial_BW</t>
+  </si>
+  <si>
+    <t>Final_BW</t>
+  </si>
+  <si>
+    <t>Kidney_Weight</t>
+  </si>
+  <si>
+    <t>Heart_Weight</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>iCa</t>
+  </si>
+  <si>
+    <t>TCO2</t>
+  </si>
+  <si>
+    <t>Glu</t>
+  </si>
+  <si>
+    <t>BUN</t>
+  </si>
+  <si>
+    <t>Crea</t>
+  </si>
+  <si>
+    <t>Hct</t>
+  </si>
+  <si>
+    <t>Hb</t>
+  </si>
+  <si>
+    <t>AnGap</t>
+  </si>
+  <si>
+    <t>&lt; 0.2</t>
   </si>
   <si>
     <t>M</t>
@@ -443,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,7 +496,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,178 +513,760 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3920</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>0.41</v>
+      </c>
+      <c r="I2">
+        <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3921</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>82624</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>39.1</v>
+      </c>
+      <c r="G3">
+        <v>41.6</v>
+      </c>
+      <c r="H3">
+        <v>0.45</v>
+      </c>
+      <c r="I3">
+        <v>0.17</v>
+      </c>
+      <c r="J3">
+        <v>146</v>
+      </c>
+      <c r="K3">
+        <v>4.2</v>
+      </c>
+      <c r="L3">
+        <v>119</v>
+      </c>
+      <c r="M3">
+        <v>1.31</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>231</v>
+      </c>
+      <c r="P3">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3">
+        <v>42</v>
+      </c>
+      <c r="S3">
+        <v>14.3</v>
+      </c>
+      <c r="T3">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3922</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>82624</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>37.4</v>
+      </c>
+      <c r="G4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.41</v>
+      </c>
+      <c r="I4">
+        <v>0.16</v>
+      </c>
+      <c r="J4">
+        <v>145</v>
+      </c>
+      <c r="K4">
+        <v>4.2</v>
+      </c>
+      <c r="L4">
+        <v>119</v>
+      </c>
+      <c r="M4">
+        <v>1.32</v>
+      </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>249</v>
+      </c>
+      <c r="P4">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4">
+        <v>39</v>
+      </c>
+      <c r="S4">
+        <v>13.3</v>
+      </c>
+      <c r="T4">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3923</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>82624</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>37.1</v>
+      </c>
+      <c r="G5">
+        <v>40.5</v>
+      </c>
+      <c r="H5">
+        <v>0.43</v>
+      </c>
+      <c r="I5">
+        <v>0.18</v>
+      </c>
+      <c r="J5">
+        <v>145</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>119</v>
+      </c>
+      <c r="M5">
+        <v>1.25</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>187</v>
+      </c>
+      <c r="P5">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5">
+        <v>39</v>
+      </c>
+      <c r="S5">
+        <v>13.3</v>
+      </c>
+      <c r="T5">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3932</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>82624</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
+      <c r="F6">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="G6">
+        <v>37.5</v>
+      </c>
+      <c r="H6">
+        <v>0.45</v>
+      </c>
+      <c r="I6">
+        <v>0.17</v>
+      </c>
+      <c r="J6">
+        <v>145</v>
+      </c>
+      <c r="K6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L6">
+        <v>118</v>
+      </c>
+      <c r="M6">
+        <v>1.29</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>191</v>
+      </c>
+      <c r="P6">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6">
+        <v>38</v>
+      </c>
+      <c r="S6">
+        <v>12.9</v>
+      </c>
+      <c r="T6">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3933</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>82624</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7">
+        <v>32.5</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>0.39</v>
+      </c>
+      <c r="I7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J7">
+        <v>146</v>
+      </c>
+      <c r="K7">
+        <v>4.2</v>
+      </c>
+      <c r="L7">
+        <v>120</v>
+      </c>
+      <c r="M7">
+        <v>1.29</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>183</v>
+      </c>
+      <c r="P7">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7">
+        <v>42</v>
+      </c>
+      <c r="S7">
+        <v>14.3</v>
+      </c>
+      <c r="T7">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3934</v>
       </c>
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>82624</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8">
+        <v>31.7</v>
+      </c>
+      <c r="G8">
+        <v>31.6</v>
+      </c>
+      <c r="H8">
+        <v>0.41</v>
+      </c>
+      <c r="I8">
+        <v>0.17</v>
+      </c>
+      <c r="J8">
+        <v>147</v>
+      </c>
+      <c r="K8">
+        <v>3.8</v>
+      </c>
+      <c r="L8">
+        <v>120</v>
+      </c>
+      <c r="M8">
+        <v>1.22</v>
+      </c>
+      <c r="N8">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>137</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8">
+        <v>36</v>
+      </c>
+      <c r="S8">
+        <v>12.2</v>
+      </c>
+      <c r="T8">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3935</v>
       </c>
       <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>82624</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
+      <c r="F9">
+        <v>38.1</v>
+      </c>
+      <c r="G9">
+        <v>37.9</v>
+      </c>
+      <c r="H9">
+        <v>0.43</v>
+      </c>
+      <c r="I9">
+        <v>0.16</v>
+      </c>
+      <c r="J9">
+        <v>145</v>
+      </c>
+      <c r="K9">
+        <v>4.2</v>
+      </c>
+      <c r="L9">
+        <v>119</v>
+      </c>
+      <c r="M9">
+        <v>1.26</v>
+      </c>
+      <c r="N9">
+        <v>24</v>
+      </c>
+      <c r="O9">
+        <v>200</v>
+      </c>
+      <c r="P9">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9">
+        <v>38</v>
+      </c>
+      <c r="S9">
+        <v>12.9</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3936</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>82624</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>39.6</v>
+      </c>
+      <c r="G10">
+        <v>28.1</v>
+      </c>
+      <c r="H10">
+        <v>0.39</v>
+      </c>
+      <c r="I10">
+        <v>0.12</v>
+      </c>
+      <c r="J10">
+        <v>145</v>
+      </c>
+      <c r="K10">
+        <v>3.9</v>
+      </c>
+      <c r="L10">
+        <v>116</v>
+      </c>
+      <c r="M10">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N10">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>109</v>
+      </c>
+      <c r="P10">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <v>13.6</v>
+      </c>
+      <c r="T10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3937</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>82624</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>42.4</v>
+      </c>
+      <c r="G11">
+        <v>28.7</v>
+      </c>
+      <c r="H11">
+        <v>0.38</v>
+      </c>
+      <c r="I11">
+        <v>0.12</v>
+      </c>
+      <c r="J11">
+        <v>142</v>
+      </c>
+      <c r="K11">
+        <v>4.7</v>
+      </c>
+      <c r="L11">
+        <v>121</v>
+      </c>
+      <c r="M11">
+        <v>0.99</v>
+      </c>
+      <c r="N11">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>131</v>
+      </c>
+      <c r="P11">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11">
+        <v>37</v>
+      </c>
+      <c r="S11">
+        <v>12.6</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3938</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>82624</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>33.4</v>
+      </c>
+      <c r="G12">
+        <v>25.9</v>
+      </c>
+      <c r="H12">
+        <v>0.36</v>
+      </c>
+      <c r="I12">
+        <v>0.11</v>
+      </c>
+      <c r="J12">
+        <v>144</v>
+      </c>
+      <c r="K12">
+        <v>5.5</v>
+      </c>
+      <c r="L12">
+        <v>123</v>
+      </c>
+      <c r="M12">
+        <v>0.93</v>
+      </c>
+      <c r="N12">
+        <v>22</v>
+      </c>
+      <c r="O12">
+        <v>126</v>
+      </c>
+      <c r="P12">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12">
+        <v>36</v>
+      </c>
+      <c r="S12">
+        <v>12.2</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3939</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>82624</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>41.6</v>
+      </c>
+      <c r="G13">
+        <v>30.1</v>
+      </c>
+      <c r="H13">
+        <v>0.42</v>
+      </c>
+      <c r="I13">
+        <v>0.13</v>
+      </c>
+      <c r="J13">
+        <v>141</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>120</v>
+      </c>
+      <c r="M13">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N13">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>110</v>
+      </c>
+      <c r="P13">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13">
+        <v>39</v>
+      </c>
+      <c r="S13">
+        <v>13.3</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Sample_Meta.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Sample_Meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D773B833-AA0D-2F4F-8C5F-2A4FFF3D28B6}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6900519-52F0-D14A-BFFA-0002E436906A}"/>
   <bookViews>
     <workbookView xWindow="7100" yWindow="3080" windowWidth="18220" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -565,11 +565,11 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2">
+        <v>82624</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>

--- a/VQC R work/Data Sheets/PFAS_Sample_Meta.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Sample_Meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Data Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6900519-52F0-D14A-BFFA-0002E436906A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62AD145-06BF-4645-A3BF-91217CB666D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="3080" windowWidth="18220" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13780" yWindow="3520" windowWidth="18220" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,12 +488,15 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
